--- a/src/main/resources/substituttlister/V1_personloftere.xlsx
+++ b/src/main/resources/substituttlister/V1_personloftere.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasmund/dev/hm-grunndata-alternativprodukter/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasmund/dev/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D0C353-05AD-5940-B84A-CD9B223D1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34E084-B4D4-5342-BB53-A4C8F0B413EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16780" xr2:uid="{8997ABA3-265C-4565-AD00-094E7F16CC3A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16460" xr2:uid="{8997ABA3-265C-4565-AD00-094E7F16CC3A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -813,10 +814,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B4AD1C-A47C-AB4A-AD3E-147D156EDDD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815AA82E-56E2-4B74-827D-F4710CA2D241}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/substituttlister/V1_personloftere.xlsx
+++ b/src/main/resources/substituttlister/V1_personloftere.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aasmund/dev/hm-grunndata-alternativprodukter/src/main/resources/substituttlister/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840A30B-3FFE-7247-AAF7-18A71AD59839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB5338-91B0-7448-A415-D2BFFBF82A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{8997ABA3-265C-4565-AD00-094E7F16CC3A}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="25960" activeTab="1" xr2:uid="{8997ABA3-265C-4565-AD00-094E7F16CC3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -37,521 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="171">
-  <si>
-    <t>Bellavita</t>
-  </si>
-  <si>
-    <t>Badekarheis sittende</t>
-  </si>
-  <si>
-    <t>Orca</t>
-  </si>
-  <si>
-    <t>Hms-nr</t>
-  </si>
-  <si>
-    <t>Orca xl</t>
-  </si>
-  <si>
-    <t>Overflyttingsplattform med sete</t>
-  </si>
-  <si>
-    <t>Sara Stedy</t>
-  </si>
-  <si>
-    <t>Sara Stedy, small</t>
-  </si>
-  <si>
-    <t>Overflyttingsplattform uten sete</t>
-  </si>
-  <si>
-    <t>Etac Turner Pro</t>
-  </si>
-  <si>
-    <t>Mobil personløfter for aktivt løft</t>
-  </si>
-  <si>
-    <t>Mobil personløfter for passivt løft, egnet for transport</t>
-  </si>
-  <si>
-    <t>Mobil personløfter for passivt løft, manuell fremdrift</t>
-  </si>
-  <si>
-    <t>Mobil personløfter for passivt løft, el fremdrift</t>
-  </si>
-  <si>
-    <t>Stasjonær personløfter for passivt løft, manuell fremdrift i ett eller flere rom</t>
-  </si>
-  <si>
-    <t>ISA</t>
-  </si>
-  <si>
-    <t>Molift Quick Raiser</t>
-  </si>
-  <si>
-    <t>Molift Smart 150</t>
-  </si>
-  <si>
-    <t>Sara Flex</t>
-  </si>
-  <si>
-    <t>Molift Mover 180</t>
-  </si>
-  <si>
-    <t>Maxi Twin 2-punkt</t>
-  </si>
-  <si>
-    <t>Molift Air 200</t>
-  </si>
-  <si>
-    <t>Eva450</t>
-  </si>
-  <si>
-    <t>600 Drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molift Air 205 </t>
-  </si>
-  <si>
-    <t>Rise Atlas</t>
-  </si>
-  <si>
-    <t>625M</t>
-  </si>
-  <si>
-    <t>RiseAtlas450</t>
-  </si>
-  <si>
-    <t>525T</t>
-  </si>
-  <si>
-    <t>Birdie Plus</t>
-  </si>
-  <si>
-    <t>Carina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Drive </t>
-  </si>
-  <si>
-    <t>Eva400EE</t>
-  </si>
-  <si>
-    <t>Eva450EE</t>
-  </si>
-  <si>
-    <t>Flamingo</t>
-  </si>
-  <si>
-    <t>021863</t>
-  </si>
-  <si>
-    <t>021866</t>
-  </si>
-  <si>
-    <t>Flamingo Comact</t>
-  </si>
-  <si>
-    <t>Flamingo Compact</t>
-  </si>
-  <si>
-    <t>021864</t>
-  </si>
-  <si>
-    <t>021865</t>
-  </si>
-  <si>
-    <t>Golvo 7000 ES</t>
-  </si>
-  <si>
-    <t>012000</t>
-  </si>
-  <si>
-    <t>LikoLight</t>
-  </si>
-  <si>
-    <t>018359</t>
-  </si>
-  <si>
-    <t>Maxi Move</t>
-  </si>
-  <si>
-    <t>203480</t>
-  </si>
-  <si>
-    <t>181786</t>
-  </si>
-  <si>
-    <t>Maxi Twin</t>
-  </si>
-  <si>
-    <t>Molift Partner</t>
-  </si>
-  <si>
-    <t>014831</t>
-  </si>
-  <si>
-    <t>017318</t>
-  </si>
-  <si>
-    <t>Molift Smart</t>
-  </si>
-  <si>
-    <t>021788</t>
-  </si>
-  <si>
-    <t>Nova 300 Mobil</t>
-  </si>
-  <si>
-    <t>162637</t>
-  </si>
-  <si>
-    <t>196086</t>
-  </si>
-  <si>
-    <t>Samson</t>
-  </si>
-  <si>
-    <t>014757</t>
-  </si>
-  <si>
-    <t>014758</t>
-  </si>
-  <si>
-    <t>Uno</t>
-  </si>
-  <si>
-    <t>014759</t>
-  </si>
-  <si>
-    <t>021786</t>
-  </si>
-  <si>
-    <t>010562</t>
-  </si>
-  <si>
-    <t>010564</t>
-  </si>
-  <si>
-    <t>Uno 102 EE</t>
-  </si>
-  <si>
-    <t>010563</t>
-  </si>
-  <si>
-    <t>Vega505EE</t>
-  </si>
-  <si>
-    <t>199199</t>
-  </si>
-  <si>
-    <t>162798</t>
-  </si>
-  <si>
-    <t>MiniLift</t>
-  </si>
-  <si>
-    <t>163388</t>
-  </si>
-  <si>
-    <t>023661</t>
-  </si>
-  <si>
-    <t>Nova 500 Mobil</t>
-  </si>
-  <si>
-    <t>162638</t>
-  </si>
-  <si>
-    <t>Nova 500NG Mobil Oppr.l</t>
-  </si>
-  <si>
-    <t>196087</t>
-  </si>
-  <si>
-    <t>Oxford Ascend</t>
-  </si>
-  <si>
-    <t>153174</t>
-  </si>
-  <si>
-    <t>161460</t>
-  </si>
-  <si>
-    <t>Oxford Journey</t>
-  </si>
-  <si>
-    <t>Sabina</t>
-  </si>
-  <si>
-    <t>021787</t>
-  </si>
-  <si>
-    <t>014760</t>
-  </si>
-  <si>
-    <t>149875</t>
-  </si>
-  <si>
-    <t>Sara 3000</t>
-  </si>
-  <si>
-    <t>Sara Plus</t>
-  </si>
-  <si>
-    <t>147286</t>
-  </si>
-  <si>
-    <t>199201</t>
-  </si>
-  <si>
-    <t>Danheis 2000</t>
-  </si>
-  <si>
-    <t>014792</t>
-  </si>
-  <si>
-    <t>014793</t>
-  </si>
-  <si>
-    <t>202634</t>
-  </si>
-  <si>
-    <t>Guldman GH1 Serie</t>
-  </si>
-  <si>
-    <t>HeliQ</t>
-  </si>
-  <si>
-    <t>018144</t>
-  </si>
-  <si>
-    <t>243441</t>
-  </si>
-  <si>
-    <t>Invacare Robin</t>
-  </si>
-  <si>
-    <t>148856</t>
-  </si>
-  <si>
-    <t>Likorall</t>
-  </si>
-  <si>
-    <t>015581</t>
-  </si>
-  <si>
-    <t>015580</t>
-  </si>
-  <si>
-    <t>015582</t>
-  </si>
-  <si>
-    <t>022987</t>
-  </si>
-  <si>
-    <t>022988</t>
-  </si>
-  <si>
-    <t>Likorall 243 ES</t>
-  </si>
-  <si>
-    <t>Likorall 250 ES</t>
-  </si>
-  <si>
-    <t>Molift Air</t>
-  </si>
-  <si>
-    <t>199140</t>
-  </si>
-  <si>
-    <t>Molift Hi-Trac</t>
-  </si>
-  <si>
-    <t>Molift Hi-trac</t>
-  </si>
-  <si>
-    <t>014761</t>
-  </si>
-  <si>
-    <t>014762</t>
-  </si>
-  <si>
-    <t>014763</t>
-  </si>
-  <si>
-    <t>Multirall 200</t>
-  </si>
-  <si>
-    <t>021789</t>
-  </si>
-  <si>
-    <t>Nova 100 Takløfter</t>
-  </si>
-  <si>
-    <t>162639</t>
-  </si>
-  <si>
-    <t>162640</t>
-  </si>
-  <si>
-    <t>Rise450M</t>
-  </si>
-  <si>
-    <t>162799</t>
-  </si>
-  <si>
-    <t>199203</t>
-  </si>
-  <si>
-    <t>RiseAtlas T</t>
-  </si>
-  <si>
-    <t>199204</t>
-  </si>
-  <si>
-    <t>RiseAtlas M</t>
-  </si>
-  <si>
-    <t>199200</t>
-  </si>
-  <si>
-    <t>RiseBasic</t>
-  </si>
-  <si>
-    <t>199202</t>
-  </si>
-  <si>
-    <t>Roomer</t>
-  </si>
-  <si>
-    <t>160644</t>
-  </si>
-  <si>
-    <t>Roomer HC 2200</t>
-  </si>
-  <si>
-    <t>018143</t>
-  </si>
-  <si>
-    <t>Badekarheis liggende posisjon</t>
-  </si>
-  <si>
-    <t>148028</t>
-  </si>
-  <si>
-    <t>Dento lift S</t>
-  </si>
-  <si>
-    <t>163195</t>
-  </si>
-  <si>
-    <t>Aquatec Major</t>
-  </si>
-  <si>
-    <t>199044</t>
-  </si>
-  <si>
-    <t>199045</t>
-  </si>
-  <si>
-    <t>199046</t>
-  </si>
-  <si>
-    <t>199047</t>
-  </si>
-  <si>
-    <t>199048</t>
-  </si>
-  <si>
-    <t>199049</t>
-  </si>
-  <si>
-    <t>199050</t>
-  </si>
-  <si>
-    <t>199051</t>
-  </si>
-  <si>
-    <t>199052</t>
-  </si>
-  <si>
-    <t>199053</t>
-  </si>
-  <si>
-    <t>Lotus BLV6</t>
-  </si>
-  <si>
-    <t>155545</t>
-  </si>
-  <si>
-    <t>145604</t>
-  </si>
-  <si>
-    <t>163141</t>
-  </si>
-  <si>
-    <t>ReTurn</t>
-  </si>
-  <si>
-    <t>113683</t>
-  </si>
-  <si>
-    <t>Molift Raiser Pro</t>
-  </si>
-  <si>
-    <t>Molift Raiser</t>
-  </si>
-  <si>
-    <t>256578</t>
-  </si>
-  <si>
-    <t>Molift Mover180</t>
-  </si>
-  <si>
-    <t>178886</t>
-  </si>
-  <si>
-    <t>Atlas dreietårn</t>
-  </si>
-  <si>
-    <t>236715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTP1 </t>
-  </si>
-  <si>
-    <t>Kommentarer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH1 205 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH3+ 250 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva450EE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Er ingen prod.på avtale i dag, men har vært tidl. </t>
-  </si>
-  <si>
-    <t>Ikke omfattet av dagens avtale</t>
-  </si>
-  <si>
-    <t>Stasjonær personløfter med el.framdrift</t>
-  </si>
-  <si>
-    <t>Delkontrakt</t>
-  </si>
-  <si>
-    <t>Delkontraktnavn</t>
-  </si>
-  <si>
-    <t>Produktnavn</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1382,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815AA82E-56E2-4B74-827D-F4710CA2D241}">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1399,21 +885,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1421,18 +897,10 @@
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="34">
-        <v>232472</v>
-      </c>
+      <c r="A2" s="8"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="6"/>
@@ -1443,60 +911,40 @@
     <row r="3" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="55"/>
-      <c r="C3" s="69" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="35">
-        <v>292546</v>
-      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="54"/>
-      <c r="C4" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>152</v>
-      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="9"/>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="54"/>
-      <c r="C5" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>155</v>
-      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="9"/>
       <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="54"/>
-      <c r="C6" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>159</v>
-      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="9"/>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="54"/>
-      <c r="C7" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>157</v>
-      </c>
+      <c r="C7" s="70"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="9"/>
       <c r="F7" s="4"/>
     </row>
@@ -1509,30 +957,18 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="36">
-        <v>184477</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="11"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="56"/>
-      <c r="C10" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="36">
-        <v>292535</v>
-      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="11"/>
       <c r="F10" s="4"/>
     </row>
@@ -1545,174 +981,114 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="37">
-        <v>292483</v>
-      </c>
+      <c r="A12" s="12"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="13"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="57"/>
-      <c r="C13" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="38">
-        <v>242529</v>
-      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="27"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="28"/>
       <c r="B14" s="58"/>
-      <c r="C14" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="37">
-        <v>242660</v>
-      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="13"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="57"/>
-      <c r="C15" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="13"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="57"/>
-      <c r="C16" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>71</v>
-      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="13"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="57"/>
-      <c r="C17" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>72</v>
-      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="13"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="57"/>
-      <c r="C18" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>74</v>
-      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="13"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="57"/>
-      <c r="C19" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>76</v>
-      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="13"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="57"/>
-      <c r="C20" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>78</v>
-      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="13"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="57"/>
-      <c r="C21" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>79</v>
-      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="13"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="57"/>
-      <c r="C22" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>82</v>
-      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="13"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="57"/>
-      <c r="C23" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>83</v>
-      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="13"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="57"/>
-      <c r="C24" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>84</v>
-      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="13"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="57"/>
-      <c r="C25" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>87</v>
-      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="13"/>
       <c r="F25" s="4"/>
     </row>
@@ -1724,43 +1100,27 @@
       <c r="E26" s="13"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
-        <v>4</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="39">
-        <v>161570</v>
-      </c>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="15"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="60"/>
-      <c r="C28" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>44</v>
-      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="15"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="59"/>
-      <c r="C29" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>53</v>
-      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="15"/>
       <c r="F29" s="4"/>
     </row>
@@ -1772,331 +1132,219 @@
       <c r="E30" s="15"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
-        <v>5</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="40">
-        <v>242661</v>
-      </c>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="17"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="41">
-        <v>242530</v>
-      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="17"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="61"/>
-      <c r="C33" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="41">
-        <v>199138</v>
-      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="17"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="40">
-        <v>292536</v>
-      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="17"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="61"/>
-      <c r="C35" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="40">
-        <v>199198</v>
-      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="17"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="61"/>
-      <c r="C36" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="40">
-        <v>162797</v>
-      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="17"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="61"/>
-      <c r="C37" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="40">
-        <v>292536</v>
-      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="40"/>
       <c r="E37" s="17"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="61"/>
-      <c r="C38" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>35</v>
-      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="17"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="61"/>
-      <c r="C39" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>36</v>
-      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="17"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="61"/>
-      <c r="C40" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>39</v>
-      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="17"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="61"/>
-      <c r="C41" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>40</v>
-      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="40"/>
       <c r="E41" s="17"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="61"/>
-      <c r="C42" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>42</v>
-      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="17"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="61"/>
-      <c r="C43" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>46</v>
-      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="17"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="61"/>
-      <c r="C44" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>47</v>
-      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="17"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="61"/>
-      <c r="C45" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>50</v>
-      </c>
+      <c r="C45" s="30"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="17"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="61"/>
-      <c r="C46" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>51</v>
-      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="17"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="61"/>
-      <c r="C47" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="40">
-        <v>163140</v>
-      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="17"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="61"/>
-      <c r="C48" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>55</v>
-      </c>
+      <c r="C48" s="30"/>
+      <c r="D48" s="40"/>
       <c r="E48" s="17"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="61"/>
-      <c r="C49" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>56</v>
-      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="17"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
       <c r="B50" s="61"/>
-      <c r="C50" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>58</v>
-      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="17"/>
       <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="61"/>
-      <c r="C51" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="40" t="s">
-        <v>59</v>
-      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="17"/>
       <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="61"/>
-      <c r="C52" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="40" t="s">
-        <v>61</v>
-      </c>
+      <c r="C52" s="30"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="17"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="61"/>
-      <c r="C53" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>62</v>
-      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="40"/>
       <c r="E53" s="17"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="61"/>
-      <c r="C54" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="40" t="s">
-        <v>63</v>
-      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="40"/>
       <c r="E54" s="17"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="61"/>
-      <c r="C55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="40" t="s">
-        <v>64</v>
-      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="17"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="61"/>
-      <c r="C56" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>66</v>
-      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="17"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="16"/>
       <c r="B57" s="61"/>
-      <c r="C57" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="40"/>
       <c r="E57" s="17"/>
       <c r="F57" s="4"/>
     </row>
@@ -2108,45 +1356,27 @@
       <c r="E58" s="17"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
-        <v>7</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="42">
-        <v>242568</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>165</v>
-      </c>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
       <c r="B60" s="63"/>
-      <c r="C60" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="42">
-        <v>242569</v>
-      </c>
+      <c r="C60" s="75"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="52"/>
       <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
       <c r="B61" s="63"/>
-      <c r="C61" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="42">
-        <v>242569</v>
-      </c>
+      <c r="C61" s="75"/>
+      <c r="D61" s="42"/>
       <c r="E61" s="52"/>
       <c r="F61" s="4"/>
     </row>
@@ -2166,343 +1396,227 @@
       <c r="E63" s="96"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>8</v>
-      </c>
-      <c r="B64" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="43">
-        <v>292448</v>
-      </c>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="43"/>
       <c r="E64" s="51"/>
       <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="64"/>
-      <c r="C65" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="44">
-        <v>242663</v>
-      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="19"/>
       <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="64"/>
-      <c r="C66" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="43">
-        <v>292555</v>
-      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="43"/>
       <c r="E66" s="19"/>
       <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="64"/>
-      <c r="C67" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="43">
-        <v>292556</v>
-      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="19"/>
       <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="64"/>
-      <c r="C68" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="43">
-        <v>199200</v>
-      </c>
+      <c r="C68" s="31"/>
+      <c r="D68" s="43"/>
       <c r="E68" s="19"/>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="64"/>
-      <c r="C69" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="43" t="s">
-        <v>88</v>
-      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="43"/>
       <c r="E69" s="19"/>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="64"/>
-      <c r="C70" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>90</v>
-      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="19"/>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="64"/>
-      <c r="C71" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>91</v>
-      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="19"/>
       <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="64"/>
-      <c r="C72" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>92</v>
-      </c>
+      <c r="C72" s="31"/>
+      <c r="D72" s="43"/>
       <c r="E72" s="19"/>
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="64"/>
-      <c r="C73" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="43" t="s">
-        <v>95</v>
-      </c>
+      <c r="C73" s="31"/>
+      <c r="D73" s="43"/>
       <c r="E73" s="19"/>
       <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="64"/>
-      <c r="C74" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="43" t="s">
-        <v>96</v>
-      </c>
+      <c r="C74" s="31"/>
+      <c r="D74" s="43"/>
       <c r="E74" s="19"/>
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="64"/>
-      <c r="C75" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="43" t="s">
-        <v>98</v>
-      </c>
+      <c r="C75" s="31"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="19"/>
       <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="64"/>
-      <c r="C76" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D76" s="43" t="s">
-        <v>100</v>
-      </c>
+      <c r="C76" s="31"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="19"/>
       <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="64"/>
-      <c r="C77" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D77" s="43" t="s">
-        <v>101</v>
-      </c>
+      <c r="C77" s="31"/>
+      <c r="D77" s="43"/>
       <c r="E77" s="19"/>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="64"/>
-      <c r="C78" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D78" s="43" t="s">
-        <v>102</v>
-      </c>
+      <c r="C78" s="31"/>
+      <c r="D78" s="43"/>
       <c r="E78" s="19"/>
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="64"/>
-      <c r="C79" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>103</v>
-      </c>
+      <c r="C79" s="31"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="19"/>
       <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="64"/>
-      <c r="C80" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="43" t="s">
-        <v>104</v>
-      </c>
+      <c r="C80" s="31"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="19"/>
       <c r="F80" s="4"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="64"/>
-      <c r="C81" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="43" t="s">
-        <v>108</v>
-      </c>
+      <c r="C81" s="31"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="19"/>
       <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="64"/>
-      <c r="C82" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="43" t="s">
-        <v>111</v>
-      </c>
+      <c r="C82" s="31"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="19"/>
       <c r="F82" s="4"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="64"/>
-      <c r="C83" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="43" t="s">
-        <v>112</v>
-      </c>
+      <c r="C83" s="31"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="19"/>
       <c r="F83" s="4"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="64"/>
-      <c r="C84" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" s="43" t="s">
-        <v>115</v>
-      </c>
+      <c r="C84" s="31"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="19"/>
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="64"/>
-      <c r="C85" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="43" t="s">
-        <v>117</v>
-      </c>
+      <c r="C85" s="31"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="19"/>
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="64"/>
-      <c r="C86" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D86" s="43" t="s">
-        <v>120</v>
-      </c>
+      <c r="C86" s="31"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="19"/>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="64"/>
-      <c r="C87" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="43" t="s">
-        <v>125</v>
-      </c>
+      <c r="C87" s="31"/>
+      <c r="D87" s="43"/>
       <c r="E87" s="19"/>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="64"/>
-      <c r="C88" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" s="43" t="s">
-        <v>88</v>
-      </c>
+      <c r="C88" s="31"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="19"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="64"/>
-      <c r="C89" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" s="43" t="s">
-        <v>127</v>
-      </c>
+      <c r="C89" s="31"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="19"/>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="64"/>
-      <c r="C90" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="D90" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="C90" s="31"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="19"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="64"/>
-      <c r="C91" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D91" s="43" t="s">
-        <v>131</v>
-      </c>
+      <c r="C91" s="31"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="19"/>
       <c r="F91" s="4"/>
     </row>
@@ -2515,78 +1629,50 @@
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="20">
-        <v>9</v>
-      </c>
-      <c r="B93" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="45">
-        <v>292406</v>
-      </c>
+      <c r="A93" s="20"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="45"/>
       <c r="E93" s="21"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="22"/>
       <c r="B94" s="66"/>
-      <c r="C94" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="46">
-        <v>211366</v>
-      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="21"/>
       <c r="F94" s="4"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="22"/>
       <c r="B95" s="66"/>
-      <c r="C95" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="46">
-        <v>211365</v>
-      </c>
+      <c r="C95" s="32"/>
+      <c r="D95" s="46"/>
       <c r="E95" s="21"/>
       <c r="F95" s="4"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="22"/>
       <c r="B96" s="66"/>
-      <c r="C96" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="D96" s="45" t="s">
-        <v>148</v>
-      </c>
+      <c r="C96" s="32"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="21"/>
       <c r="F96" s="4"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="22"/>
       <c r="B97" s="66"/>
-      <c r="C97" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D97" s="45" t="s">
-        <v>149</v>
-      </c>
+      <c r="C97" s="32"/>
+      <c r="D97" s="45"/>
       <c r="E97" s="21"/>
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="22"/>
       <c r="B98" s="66"/>
-      <c r="C98" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="45" t="s">
-        <v>150</v>
-      </c>
+      <c r="C98" s="32"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="21"/>
       <c r="F98" s="7"/>
     </row>
@@ -2598,103 +1684,67 @@
       <c r="E99" s="21"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A100" s="94" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="79">
-        <v>199203</v>
-      </c>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="94"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79"/>
       <c r="E100" s="80"/>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="81"/>
       <c r="B101" s="77"/>
-      <c r="C101" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="D101" s="82">
-        <v>199204</v>
-      </c>
+      <c r="C101" s="78"/>
+      <c r="D101" s="82"/>
       <c r="E101" s="80"/>
       <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="81"/>
       <c r="B102" s="77"/>
-      <c r="C102" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D102" s="79" t="s">
-        <v>118</v>
-      </c>
+      <c r="C102" s="78"/>
+      <c r="D102" s="79"/>
       <c r="E102" s="80"/>
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="81"/>
       <c r="B103" s="77"/>
-      <c r="C103" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="D103" s="79" t="s">
-        <v>113</v>
-      </c>
+      <c r="C103" s="78"/>
+      <c r="D103" s="79"/>
       <c r="E103" s="80"/>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="81"/>
       <c r="B104" s="77"/>
-      <c r="C104" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" s="79">
-        <v>199036</v>
-      </c>
+      <c r="C104" s="78"/>
+      <c r="D104" s="79"/>
       <c r="E104" s="80"/>
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="81"/>
       <c r="B105" s="83"/>
-      <c r="C105" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="D105" s="79">
-        <v>199035</v>
-      </c>
+      <c r="C105" s="78"/>
+      <c r="D105" s="79"/>
       <c r="E105" s="80"/>
       <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="81"/>
       <c r="B106" s="83"/>
-      <c r="C106" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" s="79" t="s">
-        <v>123</v>
-      </c>
+      <c r="C106" s="78"/>
+      <c r="D106" s="79"/>
       <c r="E106" s="80"/>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="81"/>
       <c r="B107" s="83"/>
-      <c r="C107" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="D107" s="79" t="s">
-        <v>121</v>
-      </c>
+      <c r="C107" s="78"/>
+      <c r="D107" s="79"/>
       <c r="E107" s="80"/>
       <c r="F107" s="7"/>
     </row>
@@ -2706,156 +1756,105 @@
       <c r="E108" s="80"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A109" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="D109" s="86" t="s">
-        <v>133</v>
-      </c>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="95"/>
+      <c r="B109" s="84"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="86"/>
       <c r="E109" s="87"/>
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="88"/>
       <c r="B110" s="84"/>
-      <c r="C110" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="86" t="s">
-        <v>137</v>
-      </c>
+      <c r="C110" s="85"/>
+      <c r="D110" s="86"/>
       <c r="E110" s="87"/>
       <c r="F110" s="7"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="88"/>
       <c r="B111" s="84"/>
-      <c r="C111" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" s="86" t="s">
-        <v>138</v>
-      </c>
+      <c r="C111" s="85"/>
+      <c r="D111" s="86"/>
       <c r="E111" s="87"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="88"/>
       <c r="B112" s="84"/>
-      <c r="C112" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D112" s="86" t="s">
-        <v>139</v>
-      </c>
+      <c r="C112" s="85"/>
+      <c r="D112" s="86"/>
       <c r="E112" s="87"/>
       <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="88"/>
       <c r="B113" s="84"/>
-      <c r="C113" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" s="86" t="s">
-        <v>140</v>
-      </c>
+      <c r="C113" s="85"/>
+      <c r="D113" s="86"/>
       <c r="E113" s="87"/>
       <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="88"/>
       <c r="B114" s="84"/>
-      <c r="C114" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D114" s="86" t="s">
-        <v>141</v>
-      </c>
+      <c r="C114" s="85"/>
+      <c r="D114" s="86"/>
       <c r="E114" s="87"/>
       <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="88"/>
       <c r="B115" s="84"/>
-      <c r="C115" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D115" s="86" t="s">
-        <v>142</v>
-      </c>
+      <c r="C115" s="85"/>
+      <c r="D115" s="86"/>
       <c r="E115" s="87"/>
       <c r="F115" s="7"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="88"/>
       <c r="B116" s="84"/>
-      <c r="C116" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D116" s="86" t="s">
-        <v>143</v>
-      </c>
+      <c r="C116" s="85"/>
+      <c r="D116" s="86"/>
       <c r="E116" s="87"/>
       <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="88"/>
       <c r="B117" s="84"/>
-      <c r="C117" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117" s="86" t="s">
-        <v>144</v>
-      </c>
+      <c r="C117" s="85"/>
+      <c r="D117" s="86"/>
       <c r="E117" s="87"/>
       <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="88"/>
       <c r="B118" s="84"/>
-      <c r="C118" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="86" t="s">
-        <v>145</v>
-      </c>
+      <c r="C118" s="85"/>
+      <c r="D118" s="86"/>
       <c r="E118" s="87"/>
       <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="88"/>
       <c r="B119" s="84"/>
-      <c r="C119" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D119" s="86" t="s">
-        <v>146</v>
-      </c>
+      <c r="C119" s="85"/>
+      <c r="D119" s="86"/>
       <c r="E119" s="87"/>
       <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="89"/>
       <c r="B120" s="90"/>
-      <c r="C120" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="D120" s="92" t="s">
-        <v>135</v>
-      </c>
+      <c r="C120" s="91"/>
+      <c r="D120" s="92"/>
       <c r="E120" s="93"/>
       <c r="F120" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
